--- a/data/trans_orig/P1432-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7555965-EF70-4122-B040-0EEA107499CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{026A6656-3E67-435D-8399-8EA3DA3A6BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DF4A9FA-037F-48E2-B6B0-3BB003935A1C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A74AD645-F0B2-4085-946A-D21CD6E3174F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="216">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>97,58%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>96,78%</t>
   </si>
   <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,54 +164,54 @@
     <t>0,37%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>99,63%</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
@@ -227,441 +227,441 @@
     <t>0,85%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
     <t>99,93%</t>
   </si>
   <si>
@@ -672,9 +672,6 @@
   </si>
   <si>
     <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1101,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3132FE3C-920B-4765-9786-6D16820943E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBCC61F-BDF3-494A-BA01-7FD7AB412CD7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1894,13 +1891,13 @@
         <v>35923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -1909,13 +1906,13 @@
         <v>50689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -1924,13 +1921,13 @@
         <v>86612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1942,13 @@
         <v>3240621</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>3249</v>
@@ -1960,25 +1957,25 @@
         <v>3328509</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>6426</v>
       </c>
       <c r="N18" s="7">
-        <v>6569128</v>
+        <v>6569129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>91</v>
@@ -2023,7 +2020,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2056,7 +2053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF767EDF-39A2-459B-85B2-C0A97C6BA5E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EDBA39-116D-487B-B196-879D165FE323}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2186,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2216,7 +2213,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2228,13 @@
         <v>14052</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>44</v>
@@ -2246,13 +2243,13 @@
         <v>48467</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -2261,13 +2258,13 @@
         <v>62519</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2279,13 @@
         <v>960591</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H6" s="7">
         <v>1202</v>
@@ -2297,13 +2294,13 @@
         <v>1288221</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M6" s="7">
         <v>2097</v>
@@ -2312,13 +2309,13 @@
         <v>2248812</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,10 +2437,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2455,7 +2452,7 @@
         <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>116</v>
@@ -2509,22 +2506,22 @@
         <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>3476</v>
       </c>
       <c r="N10" s="7">
-        <v>3703659</v>
+        <v>3703658</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,7 +2563,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2628,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2655,13 @@
         <v>3138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2673,13 +2670,13 @@
         <v>3138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2706,13 @@
         <v>455493</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>847</v>
@@ -2724,10 +2721,10 @@
         <v>936674</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>74</v>
@@ -2849,13 +2846,13 @@
         <v>22657</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2903,10 +2900,10 @@
         <v>144</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7">
         <v>3238</v>
@@ -2915,13 +2912,13 @@
         <v>3492019</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="7">
         <v>6420</v>
@@ -2930,13 +2927,13 @@
         <v>6889144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,7 +3008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DBA4D6-98A4-4F0D-B785-F3BE2F738CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1484D8-C221-4072-84ED-1795DF5C2FE1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3028,7 +3025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3141,7 +3138,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3156,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3186,13 +3183,13 @@
         <v>11972</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -3201,13 +3198,13 @@
         <v>33597</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -3216,13 +3213,13 @@
         <v>45569</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3234,13 @@
         <v>742375</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="H6" s="7">
         <v>864</v>
@@ -3252,13 +3249,13 @@
         <v>961063</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M6" s="7">
         <v>1613</v>
@@ -3267,13 +3264,13 @@
         <v>1703438</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3389,13 @@
         <v>4646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -3407,13 +3404,13 @@
         <v>15372</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -3422,13 +3419,13 @@
         <v>20018</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3440,13 @@
         <v>2071739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>1894</v>
@@ -3458,13 +3455,13 @@
         <v>1972928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>3841</v>
@@ -3473,13 +3470,13 @@
         <v>4044667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3583,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3595,13 @@
         <v>898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3619,7 +3616,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3628,13 +3625,13 @@
         <v>3199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,10 +3646,10 @@
         <v>545988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>70</v>
@@ -3667,7 +3664,7 @@
         <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>70</v>
@@ -3679,13 +3676,13 @@
         <v>1092827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3801,13 @@
         <v>17516</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -3819,13 +3816,13 @@
         <v>51270</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3834,10 +3831,10 @@
         <v>68786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>196</v>
@@ -3861,7 +3858,7 @@
         <v>198</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="H18" s="7">
         <v>3282</v>
@@ -3870,13 +3867,13 @@
         <v>3480830</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M18" s="7">
         <v>6478</v>
@@ -3885,13 +3882,13 @@
         <v>6840932</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CC9A5B-374F-4848-B530-79BB3F9E7662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B54342-4CB5-4857-B889-A8C788B1DD43}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3983,7 +3980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4093,7 +4090,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4108,7 +4105,7 @@
         <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4123,7 +4120,7 @@
         <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4147,7 +4144,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4162,7 +4159,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4177,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4195,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4213,7 +4210,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4228,7 +4225,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4502,7 @@
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4520,7 +4517,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4535,7 +4532,7 @@
         <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4559,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4574,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4589,7 +4586,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4607,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4625,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4640,7 +4637,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,7 +4708,7 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4741,7 +4738,7 @@
         <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4795,7 +4792,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,7 +4843,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1432-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{026A6656-3E67-435D-8399-8EA3DA3A6BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33396EBD-CFE2-43EA-B3A8-FA42D5C9AB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A74AD645-F0B2-4085-946A-D21CD6E3174F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B664762-769F-434C-A16F-FB3EF8C6230B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="207">
   <si>
     <t>Población con diagnóstico de incontinencia urinaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,568 +95,541 @@
     <t>2,42%</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de incontinencia urinaria en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -1098,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBCC61F-BDF3-494A-BA01-7FD7AB412CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD28A68-EDAE-4716-92F2-F9740D56043A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1515,7 +1488,7 @@
         <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,16 +1500,16 @@
         <v>1642</v>
       </c>
       <c r="D10" s="7">
-        <v>1687208</v>
+        <v>1687209</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>1546</v>
@@ -1545,13 +1518,13 @@
         <v>1579332</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>3188</v>
@@ -1560,13 +1533,13 @@
         <v>3266541</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,7 +1551,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -1622,7 +1595,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1640,37 +1613,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,14 +1658,14 @@
         <v>4714</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -1706,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1715,13 +1688,13 @@
         <v>4714</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,13 +1709,13 @@
         <v>546694</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>452</v>
@@ -1751,10 +1724,10 @@
         <v>476412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>36</v>
@@ -1766,13 +1739,13 @@
         <v>1023106</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,7 +1849,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,13 +1864,13 @@
         <v>35923</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -1906,13 +1879,13 @@
         <v>50689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -1921,13 +1894,13 @@
         <v>86612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,16 +1912,16 @@
         <v>3177</v>
       </c>
       <c r="D18" s="7">
-        <v>3240621</v>
+        <v>3240620</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>3249</v>
@@ -1957,13 +1930,13 @@
         <v>3328509</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>6426</v>
@@ -1972,13 +1945,13 @@
         <v>6569129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,7 +1963,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2034,7 +2007,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EDBA39-116D-487B-B196-879D165FE323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861D2E8-7A09-452D-B21A-A435DD7A5220}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2070,7 +2043,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2183,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2213,7 +2186,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2201,13 @@
         <v>14052</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>44</v>
@@ -2243,13 +2216,13 @@
         <v>48467</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -2258,13 +2231,13 @@
         <v>62519</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2252,13 @@
         <v>960591</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H6" s="7">
         <v>1202</v>
@@ -2294,13 +2267,13 @@
         <v>1288221</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M6" s="7">
         <v>2097</v>
@@ -2309,13 +2282,13 @@
         <v>2248812</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2437,10 +2410,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2449,13 +2422,13 @@
         <v>6286</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -2464,13 +2437,13 @@
         <v>14891</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2458,13 @@
         <v>1955351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>1627</v>
@@ -2500,28 +2473,28 @@
         <v>1748306</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>3476</v>
       </c>
       <c r="N10" s="7">
-        <v>3703658</v>
+        <v>3703659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2536,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2577,7 +2550,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2610,7 +2583,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2625,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2628,13 @@
         <v>3138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2670,13 +2643,13 @@
         <v>3138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,10 +2664,10 @@
         <v>481181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>36</v>
@@ -2706,13 +2679,13 @@
         <v>455493</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>847</v>
@@ -2721,13 +2694,13 @@
         <v>936674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2819,13 @@
         <v>22657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2861,13 +2834,13 @@
         <v>57892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -2876,13 +2849,13 @@
         <v>80549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2870,13 @@
         <v>3397125</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>3238</v>
@@ -2912,13 +2885,13 @@
         <v>3492019</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M18" s="7">
         <v>6420</v>
@@ -2927,13 +2900,13 @@
         <v>6889144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,7 +2962,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +2981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1484D8-C221-4072-84ED-1795DF5C2FE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5DAB32-D0F9-4569-85EF-2F363047E9A4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3025,7 +2998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3138,7 +3111,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3153,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3183,13 +3156,13 @@
         <v>11972</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -3198,13 +3171,13 @@
         <v>33597</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -3213,13 +3186,13 @@
         <v>45569</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3207,13 @@
         <v>742375</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H6" s="7">
         <v>864</v>
@@ -3249,13 +3222,13 @@
         <v>961063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M6" s="7">
         <v>1613</v>
@@ -3264,13 +3237,13 @@
         <v>1703438</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3359,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3374,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3362,13 @@
         <v>4646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -3404,13 +3377,13 @@
         <v>15372</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -3419,13 +3392,13 @@
         <v>20018</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3413,13 @@
         <v>2071739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>1894</v>
@@ -3455,13 +3428,13 @@
         <v>1972928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>3841</v>
@@ -3470,13 +3443,13 @@
         <v>4044667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3505,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3550,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3565,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3580,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3568,13 @@
         <v>898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3610,13 +3583,13 @@
         <v>2301</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3625,13 +3598,13 @@
         <v>3199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3619,13 @@
         <v>545988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -3661,13 +3634,13 @@
         <v>546839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>1024</v>
@@ -3676,13 +3649,13 @@
         <v>1092827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3774,13 @@
         <v>17516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -3816,13 +3789,13 @@
         <v>51270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3831,13 +3804,13 @@
         <v>68786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3825,13 @@
         <v>3360102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>3282</v>
@@ -3867,13 +3840,13 @@
         <v>3480830</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="M18" s="7">
         <v>6478</v>
@@ -3882,13 +3855,13 @@
         <v>6840932</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3917,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3963,7 +3936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B54342-4CB5-4857-B889-A8C788B1DD43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE9DA28-07F0-49E2-B45B-F1874C427854}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,7 +3953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4087,10 +4060,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4102,10 +4075,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4117,10 +4090,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4144,7 +4117,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4159,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4174,7 +4147,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,7 +4168,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4210,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4225,7 +4198,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,10 +4266,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -4305,13 +4278,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -4323,10 +4296,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4350,7 +4323,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4365,7 +4338,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4380,7 +4353,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,7 +4374,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4416,7 +4389,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4431,7 +4404,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4431,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4487,7 +4460,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4499,10 +4472,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4514,10 +4487,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4529,10 +4502,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4556,7 +4529,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4571,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4586,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4580,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4622,7 +4595,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4637,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4675,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4720,10 +4693,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4732,13 +4705,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4777,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4792,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4843,7 +4816,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,7 +4828,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -4885,7 +4858,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -4899,7 +4872,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1432-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EF7045-5FDC-47E0-B2BA-0990FB9EC4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1041DE-1445-450A-8337-ACC111123C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8DA8F37-DB2B-4605-93B4-F97D3E3B9C5F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{21425059-D159-4D4A-98A4-B90C687A902F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230F5F85-A571-4C9B-B74F-E66857B92B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02B4F87-4D6A-44D4-8499-C38D32927A79}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1230,7 +1230,7 @@
         <v>2263</v>
       </c>
       <c r="N5" s="7">
-        <v>2279483</v>
+        <v>2279482</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1281,7 +1281,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1355,7 +1355,7 @@
         <v>1642</v>
       </c>
       <c r="D8" s="7">
-        <v>1687208</v>
+        <v>1687209</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1406,7 +1406,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1665,7 +1665,7 @@
         <v>3177</v>
       </c>
       <c r="D14" s="7">
-        <v>3240621</v>
+        <v>3240620</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>66</v>
@@ -1680,7 +1680,7 @@
         <v>3249</v>
       </c>
       <c r="I14" s="7">
-        <v>3328509</v>
+        <v>3328508</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>78</v>
@@ -1695,7 +1695,7 @@
         <v>6426</v>
       </c>
       <c r="N14" s="7">
-        <v>6569128</v>
+        <v>6569129</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>81</v>
@@ -1716,7 +1716,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1731,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1746,7 +1746,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1779,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104CA85F-CC92-4985-8D55-8A2E672EE019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F8A812-7B95-4A0F-9B27-9671BEC1A3E5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2136,7 +2136,7 @@
         <v>3476</v>
       </c>
       <c r="N8" s="7">
-        <v>3703659</v>
+        <v>3703658</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>115</v>
@@ -2187,7 +2187,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2291,7 +2291,7 @@
         <v>847</v>
       </c>
       <c r="N11" s="7">
-        <v>936674</v>
+        <v>936675</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>126</v>
@@ -2342,7 +2342,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2530,7 +2530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD2EB90-BF82-4A87-A0E9-F0A3558B4CFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE7BF0B-8729-4BA9-9622-B20C5B397E59}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3042,7 +3042,7 @@
         <v>1024</v>
       </c>
       <c r="N11" s="7">
-        <v>1092827</v>
+        <v>1092828</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -3093,7 +3093,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
